--- a/rps_visualization.xlsx
+++ b/rps_visualization.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work - Summer 2021\pythonProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAGAUNT\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8544"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Grid" sheetId="1" r:id="rId1"/>
@@ -601,16 +601,19 @@
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.62890625" defaultRowHeight="30.6" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="5.85546875" defaultRowHeight="31.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="16384" width="5.62890625" style="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="18" width="6.140625" style="1" customWidth="1"/>
+    <col min="19" max="24" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="5.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30.9" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="1:24" ht="30.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="E2" s="17" t="s">
         <v>0</v>
@@ -622,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="30.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="D3" s="18">
         <v>0</v>
@@ -670,7 +673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="30.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="22">
         <v>0</v>
@@ -727,7 +730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="21" t="s">
         <v>1</v>
@@ -763,31 +766,31 @@
         <v>8</v>
       </c>
       <c r="Q5" s="23">
+        <v>6</v>
+      </c>
+      <c r="R5" s="6">
+        <v>6</v>
+      </c>
+      <c r="S5" s="7">
+        <v>7</v>
+      </c>
+      <c r="T5" s="9">
         <v>8</v>
       </c>
-      <c r="R5" s="6">
-        <v>8</v>
-      </c>
-      <c r="S5" s="7">
+      <c r="U5" s="9">
         <v>9</v>
       </c>
-      <c r="T5" s="9">
+      <c r="V5" s="9">
         <v>10</v>
       </c>
-      <c r="U5" s="9">
+      <c r="W5" s="14">
         <v>11</v>
       </c>
-      <c r="V5" s="9">
+      <c r="X5" s="10">
         <v>12</v>
       </c>
-      <c r="W5" s="14">
-        <v>13</v>
-      </c>
-      <c r="X5" s="10">
-        <v>14</v>
-      </c>
     </row>
-    <row r="6" spans="1:24" ht="30.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="C6" s="24">
         <v>4</v>
@@ -823,31 +826,31 @@
         <v>12</v>
       </c>
       <c r="Q6" s="23">
+        <v>12</v>
+      </c>
+      <c r="R6" s="6">
+        <v>12</v>
+      </c>
+      <c r="S6" s="14">
+        <v>13</v>
+      </c>
+      <c r="T6" s="7">
+        <v>14</v>
+      </c>
+      <c r="U6" s="9">
+        <v>15</v>
+      </c>
+      <c r="V6" s="9">
         <v>16</v>
       </c>
-      <c r="R6" s="6">
-        <v>16</v>
-      </c>
-      <c r="S6" s="14">
+      <c r="W6" s="9">
         <v>17</v>
       </c>
-      <c r="T6" s="7">
+      <c r="X6" s="10">
         <v>18</v>
       </c>
-      <c r="U6" s="9">
-        <v>19</v>
-      </c>
-      <c r="V6" s="9">
-        <v>20</v>
-      </c>
-      <c r="W6" s="9">
-        <v>21</v>
-      </c>
-      <c r="X6" s="10">
-        <v>22</v>
-      </c>
     </row>
-    <row r="7" spans="1:24" ht="30.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="I7" s="23">
         <v>12</v>
@@ -871,31 +874,31 @@
         <v>1</v>
       </c>
       <c r="Q7" s="23">
+        <v>18</v>
+      </c>
+      <c r="R7" s="6">
+        <v>18</v>
+      </c>
+      <c r="S7" s="14">
+        <v>19</v>
+      </c>
+      <c r="T7" s="14">
+        <v>20</v>
+      </c>
+      <c r="U7" s="7">
+        <v>21</v>
+      </c>
+      <c r="V7" s="9">
+        <v>22</v>
+      </c>
+      <c r="W7" s="9">
+        <v>23</v>
+      </c>
+      <c r="X7" s="8">
         <v>24</v>
       </c>
-      <c r="R7" s="6">
-        <v>24</v>
-      </c>
-      <c r="S7" s="14">
-        <v>25</v>
-      </c>
-      <c r="T7" s="14">
-        <v>26</v>
-      </c>
-      <c r="U7" s="7">
-        <v>27</v>
-      </c>
-      <c r="V7" s="9">
-        <v>28</v>
-      </c>
-      <c r="W7" s="9">
-        <v>29</v>
-      </c>
-      <c r="X7" s="8">
-        <v>30</v>
-      </c>
     </row>
-    <row r="8" spans="1:24" ht="30.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="I8" s="24">
         <v>16</v>
@@ -916,88 +919,88 @@
         <v>20</v>
       </c>
       <c r="Q8" s="23">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="R8" s="15">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="S8" s="14">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="T8" s="14">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="U8" s="14">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="V8" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="W8" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="X8" s="8">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="Q9" s="23">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R9" s="15">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="S9" s="9">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="T9" s="14">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="U9" s="14">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="V9" s="14">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="W9" s="7">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="X9" s="8">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="30.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="Q10" s="24">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="R10" s="11">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S10" s="16">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="T10" s="16">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="U10" s="12">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="V10" s="12">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="W10" s="12">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="X10" s="13">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
   </sheetData>
